--- a/results/mp/logistic/corona/confidence/42/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,123 +40,114 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>problem</t>
   </si>
   <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>anxiety</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>fear</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -166,9 +157,6 @@
     <t>oil</t>
   </si>
   <si>
-    <t>due</t>
-  </si>
-  <si>
     <t>prices</t>
   </si>
   <si>
@@ -187,160 +175,175 @@
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>special</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>boost</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>dear</t>
+    <t>security</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>want</t>
   </si>
   <si>
     <t>check</t>
@@ -352,16 +355,10 @@
     <t>shop</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
     <t>stay</t>
   </si>
   <si>
     <t>shopping</t>
-  </si>
-  <si>
-    <t>amp</t>
   </si>
   <si>
     <t>grocery</t>
@@ -722,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,10 +727,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -791,13 +788,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -809,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -841,13 +838,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -859,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -883,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -891,13 +888,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8321917808219178</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C5">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D5">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -909,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -933,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -941,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -962,16 +959,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -983,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -991,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7931034482758621</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1009,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>0.8833333333333333</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1033,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1044,10 +1041,10 @@
         <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1059,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K8">
         <v>0.8666666666666667</v>
@@ -1091,13 +1088,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7777777777777778</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1109,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1133,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1141,13 +1138,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7666666666666667</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1162,16 +1159,16 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K10">
-        <v>0.8381201044386423</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1183,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1191,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7307692307692307</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1209,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1233,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1241,13 +1238,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6956521739130435</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1259,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1283,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1291,13 +1288,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6956521739130435</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1312,16 +1309,16 @@
         <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K13">
-        <v>0.8292682926829268</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1333,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1341,13 +1338,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6842105263157895</v>
+        <v>0.68</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1359,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K14">
-        <v>0.8148148148148148</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L14">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="M14">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1383,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1391,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.64</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1409,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K15">
-        <v>0.7931034482758621</v>
+        <v>0.8046875</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1433,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1441,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5909090909090909</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1462,16 +1459,16 @@
         <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K16">
-        <v>0.7924528301886793</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L16">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M16">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1483,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1491,13 +1488,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.576271186440678</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1509,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K17">
-        <v>0.7887323943661971</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L17">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1533,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1541,13 +1538,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5714285714285714</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C18">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1559,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K18">
         <v>0.7878787878787878</v>
@@ -1591,13 +1588,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5686274509803921</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1609,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K19">
-        <v>0.7857142857142857</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1633,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1641,13 +1638,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5384615384615384</v>
+        <v>0.5135658914728682</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1659,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K20">
-        <v>0.76875</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L20">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1683,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1691,13 +1688,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5333333333333333</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1709,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K21">
-        <v>0.765625</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L21">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="M21">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1733,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1741,13 +1738,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5329457364341085</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1759,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K22">
         <v>0.75</v>
@@ -1791,13 +1788,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1809,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K23">
-        <v>0.7446808510638298</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1841,13 +1838,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1859,19 +1856,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K24">
-        <v>0.7441860465116279</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1883,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1891,13 +1888,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4899328859060403</v>
+        <v>0.475</v>
       </c>
       <c r="C25">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1909,19 +1906,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K25">
-        <v>0.7301587301587301</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L25">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1933,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1941,13 +1938,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4594594594594595</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1959,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K26">
-        <v>0.7272727272727273</v>
+        <v>0.725</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1983,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2012,16 +2009,16 @@
         <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K27">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2033,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2041,13 +2038,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4516129032258064</v>
+        <v>0.4429530201342282</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2059,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K28">
-        <v>0.6857142857142857</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2083,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2112,16 +2109,16 @@
         <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K29">
-        <v>0.6842105263157895</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2133,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2141,13 +2138,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4193548387096774</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2159,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K30">
-        <v>0.6818181818181818</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2183,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2191,13 +2188,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4181818181818182</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2209,19 +2206,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K31">
-        <v>0.6676470588235294</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2233,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>113</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2241,13 +2238,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4102564102564102</v>
+        <v>0.4</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2259,19 +2256,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2283,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2291,13 +2288,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2309,19 +2306,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K33">
-        <v>0.6363636363636364</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2341,13 +2338,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3846153846153846</v>
+        <v>0.375</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2359,19 +2356,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K34">
-        <v>0.6135593220338983</v>
+        <v>0.6305084745762712</v>
       </c>
       <c r="L34">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M34">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2383,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2391,13 +2388,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3636363636363636</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2409,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K35">
-        <v>0.6071428571428571</v>
+        <v>0.625</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2433,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2441,13 +2438,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3571428571428572</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2459,19 +2456,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K36">
-        <v>0.6063829787234043</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L36">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M36">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2483,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2491,13 +2488,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3170731707317073</v>
+        <v>0.2817460317460317</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2509,19 +2506,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K37">
-        <v>0.6</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2533,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2541,13 +2538,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2987012987012987</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2559,19 +2556,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K38">
-        <v>0.5857740585774058</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L38">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2583,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2591,13 +2588,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2888888888888889</v>
+        <v>0.225</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2609,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K39">
-        <v>0.5833333333333334</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2633,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2641,13 +2638,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2549019607843137</v>
+        <v>0.1742627345844504</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2659,19 +2656,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>38</v>
+        <v>308</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K40">
-        <v>0.5714285714285714</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2683,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2691,13 +2688,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.253968253968254</v>
+        <v>0.09</v>
       </c>
       <c r="C41">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2709,19 +2706,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K41">
-        <v>0.5692307692307692</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L41">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="M41">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2733,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2741,37 +2738,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2125</v>
+        <v>0.01810344827586207</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>63</v>
+        <v>1139</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K42">
-        <v>0.5652173913043478</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2783,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2791,37 +2788,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2010723860589812</v>
+        <v>0.01451612903225807</v>
       </c>
       <c r="C43">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D43">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>298</v>
+        <v>3055</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K43">
-        <v>0.550561797752809</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L43">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2833,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2841,37 +2838,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09666666666666666</v>
+        <v>0.01218369259606373</v>
       </c>
       <c r="C44">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>271</v>
+        <v>2108</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K44">
-        <v>0.5416666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2883,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2891,31 +2888,31 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.05531914893617021</v>
+        <v>0.006628787878787879</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E45">
-        <v>0.07000000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="F45">
-        <v>0.9299999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>222</v>
+        <v>3147</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K45">
-        <v>0.5416666666666666</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L45">
         <v>13</v>
@@ -2933,559 +2930,463 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.025</v>
-      </c>
-      <c r="C46">
-        <v>29</v>
-      </c>
-      <c r="D46">
-        <v>30</v>
-      </c>
-      <c r="E46">
-        <v>0.03</v>
-      </c>
-      <c r="F46">
-        <v>0.97</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>1131</v>
-      </c>
       <c r="J46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K46">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L46">
+        <v>28</v>
+      </c>
+      <c r="M46">
+        <v>28</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K47">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="L47">
+        <v>49</v>
+      </c>
+      <c r="M47">
+        <v>49</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K48">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L48">
+        <v>14</v>
+      </c>
+      <c r="M48">
+        <v>14</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K49">
+        <v>0.5</v>
+      </c>
+      <c r="L49">
+        <v>21</v>
+      </c>
+      <c r="M49">
+        <v>21</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K46">
-        <v>0.54</v>
-      </c>
-      <c r="L46">
+      <c r="K50">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="L50">
+        <v>22</v>
+      </c>
+      <c r="M50">
+        <v>22</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K51">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="L51">
+        <v>13</v>
+      </c>
+      <c r="M51">
+        <v>13</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K52">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="L52">
+        <v>13</v>
+      </c>
+      <c r="M52">
+        <v>13</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K53">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L53">
+        <v>24</v>
+      </c>
+      <c r="M53">
+        <v>24</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>27</v>
       </c>
-      <c r="M46">
-        <v>27</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="1" t="s">
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K54">
+        <v>0.390625</v>
+      </c>
+      <c r="L54">
+        <v>25</v>
+      </c>
+      <c r="M54">
+        <v>25</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K55">
+        <v>0.3424657534246575</v>
+      </c>
+      <c r="L55">
+        <v>25</v>
+      </c>
+      <c r="M55">
+        <v>25</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K56">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L56">
+        <v>26</v>
+      </c>
+      <c r="M56">
+        <v>26</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
         <v>52</v>
       </c>
-      <c r="B47">
-        <v>0.01388888888888889</v>
-      </c>
-      <c r="C47">
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K57">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="L57">
+        <v>18</v>
+      </c>
+      <c r="M57">
+        <v>18</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K58">
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="L58">
+        <v>16</v>
+      </c>
+      <c r="M58">
+        <v>16</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
         <v>43</v>
       </c>
-      <c r="D47">
-        <v>54</v>
-      </c>
-      <c r="E47">
-        <v>0.2</v>
-      </c>
-      <c r="F47">
-        <v>0.8</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>3053</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K47">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L47">
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K59">
+        <v>0.2622950819672131</v>
+      </c>
+      <c r="L59">
+        <v>16</v>
+      </c>
+      <c r="M59">
+        <v>16</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K60">
+        <v>0.1368421052631579</v>
+      </c>
+      <c r="L60">
+        <v>13</v>
+      </c>
+      <c r="M60">
+        <v>13</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K61">
+        <v>0.1296296296296296</v>
+      </c>
+      <c r="L61">
+        <v>14</v>
+      </c>
+      <c r="M61">
         <v>15</v>
       </c>
-      <c r="M47">
+      <c r="N61">
+        <v>0.93</v>
+      </c>
+      <c r="O61">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K62">
+        <v>0.1209677419354839</v>
+      </c>
+      <c r="L62">
         <v>15</v>
       </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.01172058134083451</v>
-      </c>
-      <c r="C48">
-        <v>25</v>
-      </c>
-      <c r="D48">
-        <v>35</v>
-      </c>
-      <c r="E48">
-        <v>0.29</v>
-      </c>
-      <c r="F48">
-        <v>0.71</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>2108</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K48">
-        <v>0.4523809523809524</v>
-      </c>
-      <c r="L48">
-        <v>19</v>
-      </c>
-      <c r="M48">
-        <v>19</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.005366161616161616</v>
-      </c>
-      <c r="C49">
+      <c r="M62">
+        <v>15</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K63">
+        <v>0.09239130434782608</v>
+      </c>
+      <c r="L63">
         <v>17</v>
       </c>
-      <c r="D49">
-        <v>50</v>
-      </c>
-      <c r="E49">
-        <v>0.66</v>
-      </c>
-      <c r="F49">
-        <v>0.34</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>3151</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K49">
-        <v>0.4509803921568628</v>
-      </c>
-      <c r="L49">
-        <v>23</v>
-      </c>
-      <c r="M49">
-        <v>23</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="J50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K50">
-        <v>0.4</v>
-      </c>
-      <c r="L50">
+      <c r="M63">
         <v>18</v>
-      </c>
-      <c r="M50">
-        <v>18</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="J51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K51">
-        <v>0.3972602739726027</v>
-      </c>
-      <c r="L51">
-        <v>29</v>
-      </c>
-      <c r="M51">
-        <v>29</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="J52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K52">
-        <v>0.3728813559322034</v>
-      </c>
-      <c r="L52">
-        <v>22</v>
-      </c>
-      <c r="M52">
-        <v>22</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="J53" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K53">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="L53">
-        <v>27</v>
-      </c>
-      <c r="M53">
-        <v>27</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="J54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K54">
-        <v>0.2982456140350877</v>
-      </c>
-      <c r="L54">
-        <v>17</v>
-      </c>
-      <c r="M54">
-        <v>17</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="J55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K55">
-        <v>0.28125</v>
-      </c>
-      <c r="L55">
-        <v>18</v>
-      </c>
-      <c r="M55">
-        <v>18</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="J56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K56">
-        <v>0.1308411214953271</v>
-      </c>
-      <c r="L56">
-        <v>14</v>
-      </c>
-      <c r="M56">
-        <v>16</v>
-      </c>
-      <c r="N56">
-        <v>0.88</v>
-      </c>
-      <c r="O56">
-        <v>0.12</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="J57" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K57">
-        <v>0.1209677419354839</v>
-      </c>
-      <c r="L57">
-        <v>15</v>
-      </c>
-      <c r="M57">
-        <v>15</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="J58" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K58">
-        <v>0.0972972972972973</v>
-      </c>
-      <c r="L58">
-        <v>18</v>
-      </c>
-      <c r="M58">
-        <v>18</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="J59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K59">
-        <v>0.06574394463667819</v>
-      </c>
-      <c r="L59">
-        <v>19</v>
-      </c>
-      <c r="M59">
-        <v>19</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="J60" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K60">
-        <v>0.05194805194805195</v>
-      </c>
-      <c r="L60">
-        <v>16</v>
-      </c>
-      <c r="M60">
-        <v>16</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="J61" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K61">
-        <v>0.04086538461538462</v>
-      </c>
-      <c r="L61">
-        <v>17</v>
-      </c>
-      <c r="M61">
-        <v>17</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="J62" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K62">
-        <v>0.03735632183908046</v>
-      </c>
-      <c r="L62">
-        <v>13</v>
-      </c>
-      <c r="M62">
-        <v>14</v>
-      </c>
-      <c r="N62">
-        <v>0.93</v>
-      </c>
-      <c r="O62">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="J63" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K63">
-        <v>0.01777777777777778</v>
-      </c>
-      <c r="L63">
-        <v>16</v>
-      </c>
-      <c r="M63">
-        <v>17</v>
       </c>
       <c r="N63">
         <v>0.9399999999999999</v>
@@ -3497,33 +3398,111 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K64">
+        <v>0.04560260586319218</v>
+      </c>
+      <c r="L64">
+        <v>14</v>
+      </c>
+      <c r="M64">
+        <v>15</v>
+      </c>
+      <c r="N64">
+        <v>0.93</v>
+      </c>
+      <c r="O64">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K65">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="L65">
+        <v>16</v>
+      </c>
+      <c r="M65">
+        <v>16</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K66">
+        <v>0.02330743618201998</v>
+      </c>
+      <c r="L66">
+        <v>21</v>
+      </c>
+      <c r="M66">
+        <v>21</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K67">
+        <v>0.01037735849056604</v>
+      </c>
+      <c r="L67">
+        <v>33</v>
+      </c>
+      <c r="M67">
         <v>54</v>
       </c>
-      <c r="K64">
-        <v>0.0103643216080402</v>
-      </c>
-      <c r="L64">
-        <v>33</v>
-      </c>
-      <c r="M64">
-        <v>50</v>
-      </c>
-      <c r="N64">
-        <v>0.66</v>
-      </c>
-      <c r="O64">
-        <v>0.34</v>
-      </c>
-      <c r="P64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>3151</v>
+      <c r="N67">
+        <v>0.61</v>
+      </c>
+      <c r="O67">
+        <v>0.39</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>3147</v>
       </c>
     </row>
   </sheetData>
